--- a/laboratory/java/sword-laboratory-easypoi/src/main/resources/doc/test.xlsx
+++ b/laboratory/java/sword-laboratory-easypoi/src/main/resources/doc/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>测试模板</t>
   </si>
@@ -51,12 +51,29 @@
     <t>fd:(t.date;yyyy-MM-dd)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.style</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +91,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,11 +153,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -432,63 +471,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
